--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1628220.541137319</v>
+        <v>-1634082.861172499</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791239</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13808708.32995285</v>
+        <v>13807528.37117201</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +662,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>33.1621242526724</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>145.4713763198555</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226442</v>
       </c>
       <c r="G3" t="n">
-        <v>6.25273148166316</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>112.381462902226</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>175.5367819275486</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>375.664942547869</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>195.185229056226</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>6.25273148166316</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722485</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -1066,16 +1066,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>70.91123241020145</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>105.1499684380553</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -1181,25 +1181,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>19.47758008439862</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>204.8552384449314</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -1306,7 +1306,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>100.1903889480794</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>72.77291452285054</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>152.4613090703394</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>73.06783129321417</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>152.5655514375671</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
         <v>149.8026281767911</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873666</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>341.6471816905899</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>93.77010711362792</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>26.32608977062951</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>237.0653971229462</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096562</v>
       </c>
       <c r="C16" t="n">
-        <v>88.87449238176845</v>
+        <v>97.42475435993865</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442475</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681689</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>82.84545313338893</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901678</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>101.2700806632287</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.802628176791</v>
       </c>
     </row>
     <row r="17">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541621</v>
       </c>
       <c r="V20" t="n">
         <v>208.3257718879324</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838895</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828908</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043174</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459981</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643953</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931864</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908591</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147805</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805009</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922202</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367794</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920526</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3560,7 +3560,7 @@
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1589.354526150404</v>
+        <v>1278.176883026126</v>
       </c>
       <c r="C2" t="n">
-        <v>1196.179024653335</v>
+        <v>885.0013815290567</v>
       </c>
       <c r="D2" t="n">
-        <v>1196.179024653335</v>
+        <v>499.5602527457245</v>
       </c>
       <c r="E2" t="n">
-        <v>793.5954997698793</v>
+        <v>96.976727862269</v>
       </c>
       <c r="F2" t="n">
-        <v>376.7010612998571</v>
+        <v>84.12269343265082</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>75.00034196105804</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K2" t="n">
-        <v>135.6402479253959</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>135.6402479253959</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354889</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572951</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465279</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596801</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="W2" t="n">
-        <v>1989.849271861801</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="X2" t="n">
-        <v>1989.849271861801</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Y2" t="n">
-        <v>1989.849271861801</v>
+        <v>1678.671628737523</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679.7304610040803</v>
+        <v>556.192785981317</v>
       </c>
       <c r="C3" t="n">
-        <v>529.0762305641725</v>
+        <v>405.5385555414092</v>
       </c>
       <c r="D3" t="n">
-        <v>398.9872631856529</v>
+        <v>275.4495881628895</v>
       </c>
       <c r="E3" t="n">
-        <v>262.5407722965406</v>
+        <v>139.0030972737773</v>
       </c>
       <c r="F3" t="n">
-        <v>138.1089661796724</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="G3" t="n">
-        <v>131.793075794154</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569815</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>1230.902816011259</v>
+        <v>921.5731989359458</v>
       </c>
       <c r="N3" t="n">
-        <v>1769.161601021352</v>
+        <v>921.5731989359458</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021352</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.78296973775</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.78296973775</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2039.852292637619</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1862.868480836527</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U3" t="n">
-        <v>1652.805337515169</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V3" t="n">
-        <v>1430.265335886236</v>
+        <v>1306.727660863472</v>
       </c>
       <c r="W3" t="n">
-        <v>1200.148090019523</v>
+        <v>1076.610414996759</v>
       </c>
       <c r="X3" t="n">
-        <v>1010.841012369534</v>
+        <v>887.3033373467711</v>
       </c>
       <c r="Y3" t="n">
-        <v>831.5267954450417</v>
+        <v>707.9891204222783</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.974210433261</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="C4" t="n">
-        <v>198.974210433261</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="D4" t="n">
-        <v>198.974210433261</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="E4" t="n">
-        <v>198.974210433261</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="F4" t="n">
-        <v>198.974210433261</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="G4" t="n">
-        <v>198.974210433261</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475499</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>535.6029008107853</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="V4" t="n">
-        <v>535.6029008107853</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="W4" t="n">
-        <v>422.0862716166176</v>
+        <v>657.5114775397919</v>
       </c>
       <c r="X4" t="n">
-        <v>422.0862716166176</v>
+        <v>480.2015968048944</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.974210433261</v>
+        <v>257.0895356215378</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400.9659592299921</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="C5" t="n">
-        <v>400.9659592299921</v>
+        <v>1681.986836319853</v>
       </c>
       <c r="D5" t="n">
-        <v>400.9659592299921</v>
+        <v>1296.54570753652</v>
       </c>
       <c r="E5" t="n">
-        <v>400.9659592299921</v>
+        <v>1296.54570753652</v>
       </c>
       <c r="F5" t="n">
-        <v>388.1119248003739</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G5" t="n">
-        <v>378.9895733287811</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>114.5970879866883</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>607.9173797052172</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059667</v>
+        <v>1121.520058314905</v>
       </c>
       <c r="N5" t="n">
-        <v>1578.706865059667</v>
+        <v>1635.122736924593</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465279</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596801</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.2694146788</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T5" t="n">
-        <v>1784.768812238217</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U5" t="n">
-        <v>1529.016082672816</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V5" t="n">
-        <v>1186.909273376334</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="W5" t="n">
-        <v>1186.909273376334</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="X5" t="n">
-        <v>797.4566683093909</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Y5" t="n">
-        <v>400.9659592299921</v>
+        <v>2075.162337816922</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>679.7304610040803</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>529.0762305641725</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>398.9872631856529</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>262.5407722965406</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>138.1089661796724</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>131.793075794154</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475499</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M6" t="n">
-        <v>1423.897595591878</v>
+        <v>1358.411157326566</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.897595591878</v>
+        <v>1358.411157326566</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182859</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2039.852292637619</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
-        <v>1862.868480836527</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1652.805337515169</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1430.265335886236</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1200.148090019523</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1010.841012369534</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.5267954450417</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>512.0135194200648</v>
+        <v>686.1147431215377</v>
       </c>
       <c r="C7" t="n">
-        <v>512.0135194200648</v>
+        <v>686.1147431215377</v>
       </c>
       <c r="D7" t="n">
-        <v>356.3804063225796</v>
+        <v>686.1147431215377</v>
       </c>
       <c r="E7" t="n">
-        <v>200.821594181782</v>
+        <v>530.5559309807402</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475499</v>
+        <v>373.2299961937131</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633844</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>871.322761812839</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>871.322761812839</v>
       </c>
       <c r="T7" t="n">
-        <v>618.2256087514338</v>
+        <v>871.322761812839</v>
       </c>
       <c r="U7" t="n">
-        <v>512.0135194200648</v>
+        <v>871.322761812839</v>
       </c>
       <c r="V7" t="n">
-        <v>512.0135194200648</v>
+        <v>871.322761812839</v>
       </c>
       <c r="W7" t="n">
-        <v>512.0135194200648</v>
+        <v>871.322761812839</v>
       </c>
       <c r="X7" t="n">
-        <v>512.0135194200648</v>
+        <v>871.322761812839</v>
       </c>
       <c r="Y7" t="n">
-        <v>512.0135194200648</v>
+        <v>871.322761812839</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1742.373856308063</v>
+        <v>934.2930482272545</v>
       </c>
       <c r="C8" t="n">
-        <v>1742.373856308063</v>
+        <v>934.2930482272545</v>
       </c>
       <c r="D8" t="n">
-        <v>1742.373856308063</v>
+        <v>934.2930482272545</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
         <v>509.7331374425881</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1212.952060406441</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.763344043903</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2307.981268045128</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2084.480665604544</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>2084.480665604544</v>
+        <v>2120.731108084994</v>
       </c>
       <c r="V8" t="n">
-        <v>1742.373856308063</v>
+        <v>2120.731108084994</v>
       </c>
       <c r="W8" t="n">
-        <v>1742.373856308063</v>
+        <v>2120.731108084994</v>
       </c>
       <c r="X8" t="n">
-        <v>1742.373856308063</v>
+        <v>1731.27850301805</v>
       </c>
       <c r="Y8" t="n">
-        <v>1742.373856308063</v>
+        <v>1334.787793938651</v>
       </c>
     </row>
     <row r="9">
@@ -4881,7 +4881,7 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
         <v>367.0521161637701</v>
@@ -4890,7 +4890,7 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1029.265125924707</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
         <v>1614.763130931309</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>847.4030175052487</v>
+        <v>847.557579564228</v>
       </c>
       <c r="C10" t="n">
-        <v>847.4030175052487</v>
+        <v>847.557579564228</v>
       </c>
       <c r="D10" t="n">
-        <v>847.4030175052487</v>
+        <v>691.9244664667428</v>
       </c>
       <c r="E10" t="n">
-        <v>691.8442053644512</v>
+        <v>536.3656543259453</v>
       </c>
       <c r="F10" t="n">
-        <v>534.5182705774242</v>
+        <v>379.0397195389182</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H10" t="n">
         <v>210.7856656383638</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>847.557579564228</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>847.557579564228</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>847.557579564228</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>847.557579564228</v>
       </c>
       <c r="V10" t="n">
-        <v>847.4030175052487</v>
+        <v>847.557579564228</v>
       </c>
       <c r="W10" t="n">
-        <v>847.4030175052487</v>
+        <v>847.557579564228</v>
       </c>
       <c r="X10" t="n">
-        <v>847.4030175052487</v>
+        <v>847.557579564228</v>
       </c>
       <c r="Y10" t="n">
-        <v>847.4030175052487</v>
+        <v>847.557579564228</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1280.217232716707</v>
+        <v>1966.681876406337</v>
       </c>
       <c r="C11" t="n">
-        <v>958.838006365831</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D11" t="n">
-        <v>645.1931527286926</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>314.405902991431</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>314.405902991431</v>
+        <v>655.7723833572338</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>314.4059029914309</v>
       </c>
       <c r="H11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2937.731110825495</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2937.731110825495</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2937.731110825495</v>
       </c>
       <c r="W11" t="n">
-        <v>2251.266467135864</v>
+        <v>2937.731110825495</v>
       </c>
       <c r="X11" t="n">
-        <v>1933.610137215115</v>
+        <v>2620.074780904745</v>
       </c>
       <c r="Y11" t="n">
-        <v>1608.91570328191</v>
+        <v>2295.38034697154</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>569.5655503012285</v>
+        <v>234.3338606870983</v>
       </c>
       <c r="C13" t="n">
-        <v>471.1567075134116</v>
+        <v>135.9250178992814</v>
       </c>
       <c r="D13" t="n">
-        <v>387.3198695621202</v>
+        <v>135.9250178992814</v>
       </c>
       <c r="E13" t="n">
-        <v>303.5573325675165</v>
+        <v>135.9250178992814</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>135.9250178992814</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,49 +5200,49 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138161</v>
+        <v>999.6269248138165</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1280.705150907707</v>
       </c>
       <c r="U13" t="n">
-        <v>1280.705150907706</v>
+        <v>1067.062634295802</v>
       </c>
       <c r="V13" t="n">
-        <v>1086.522080874724</v>
+        <v>872.8795642628199</v>
       </c>
       <c r="W13" t="n">
-        <v>874.9879539520959</v>
+        <v>661.3454373401914</v>
       </c>
       <c r="X13" t="n">
-        <v>720.8813363383913</v>
+        <v>499.0613902693684</v>
       </c>
       <c r="Y13" t="n">
-        <v>569.5655503012285</v>
+        <v>347.7456042322057</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1966.681876406338</v>
+        <v>1714.395101119022</v>
       </c>
       <c r="C14" t="n">
-        <v>1645.302650055462</v>
+        <v>1393.015874768146</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.657796418324</v>
+        <v>1079.371021131008</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>748.5837713937466</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572339</v>
+        <v>403.4856080699184</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="V14" t="n">
-        <v>2859.534777998631</v>
+        <v>2984.647095423697</v>
       </c>
       <c r="W14" t="n">
-        <v>2859.534777998631</v>
+        <v>2685.444335538179</v>
       </c>
       <c r="X14" t="n">
-        <v>2620.074780904746</v>
+        <v>2367.78800561743</v>
       </c>
       <c r="Y14" t="n">
-        <v>2295.380346971541</v>
+        <v>2043.093571684225</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>978.5393418843826</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>466.1639649756317</v>
+        <v>426.197684779438</v>
       </c>
       <c r="C16" t="n">
-        <v>376.3917504485929</v>
+        <v>327.7888419916212</v>
       </c>
       <c r="D16" t="n">
-        <v>376.3917504485929</v>
+        <v>327.7888419916212</v>
       </c>
       <c r="E16" t="n">
-        <v>292.6292134539892</v>
+        <v>327.7888419916212</v>
       </c>
       <c r="F16" t="n">
-        <v>207.099553813156</v>
+        <v>242.2591823507881</v>
       </c>
       <c r="G16" t="n">
-        <v>207.099553813156</v>
+        <v>145.8014035964276</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118227</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138167</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.69922112631</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173673</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922023</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.685342236449</v>
+        <v>1149.685342236451</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245441</v>
+        <v>1047.392331465513</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915621</v>
+        <v>853.2092614325309</v>
       </c>
       <c r="W16" t="n">
-        <v>741.8597555915621</v>
+        <v>853.2092614325309</v>
       </c>
       <c r="X16" t="n">
-        <v>579.5757085207391</v>
+        <v>690.925214361708</v>
       </c>
       <c r="Y16" t="n">
-        <v>579.5757085207391</v>
+        <v>539.6094283245453</v>
       </c>
     </row>
     <row r="17">
@@ -5498,10 +5498,10 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975448</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803431</v>
@@ -5549,10 +5549,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5595,19 +5595,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>973.7913173233209</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5671,25 +5671,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229885</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364859</v>
+        <v>278.5901810446693</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5741,19 +5741,19 @@
         <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5920,16 +5920,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.619390679759</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214671</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,13 +6066,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M24" t="n">
         <v>1223.947919817482</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6160,13 +6160,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072216</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,28 +6224,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>303.7986541368136</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>755.8323718938487</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1342.204025341951</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1981.256287116105</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2602.11893248314</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>3135.209895105042</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3483.397387236564</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6303,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
         <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192014</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
         <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904117</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,52 +6461,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1888.204925386532</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3483.397387236564</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420328</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640573</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6546,13 +6546,13 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878067</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746018</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988161</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463666</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057088</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2896.171031651162</v>
+        <v>2844.723727844785</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897133</v>
+        <v>3192.911219976306</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>387.2942816645715</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1015.065931291253</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1670.843902501812</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834608</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431925</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074064</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082763</v>
+        <v>425.1699371610696</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465403</v>
+        <v>723.1136360743164</v>
       </c>
       <c r="N34" t="n">
-        <v>971.0369771777496</v>
+        <v>906.3032701055256</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145874</v>
+        <v>1145.033953152044</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308586</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.2176684205</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395524</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000945</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124421</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.02107175845</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
         <v>68.7795079292422</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7093,19 +7093,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229871</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222407</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960405</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567331</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879423</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O37" t="n">
         <v>974.9038003296503</v>
@@ -7163,7 +7163,7 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
         <v>68.7795079292422</v>
@@ -7254,22 +7254,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7330,28 +7330,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>273.0105384364859</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184691</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296503</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7388,22 +7388,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,13 +7445,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,22 +7488,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7582,37 +7582,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
         <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7725,16 +7725,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7807,19 +7807,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P46" t="n">
         <v>1094.779966106229</v>
@@ -7979,25 +7979,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>236.1337451293797</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>306.0096150138713</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>480.3688641260439</v>
+        <v>492.8960778890029</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886041</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431194</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>216.8905660381766</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920146</v>
       </c>
       <c r="O5" t="n">
-        <v>213.2436883388568</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,7 +8292,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
@@ -8301,16 +8301,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>561.0555281269443</v>
+        <v>611.1777065035424</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>170.2276803222905</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>682.7240674336267</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8538,10 +8538,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>272.8385602943859</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>265.8235510992406</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8769,7 +8769,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,16 +8778,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>136.3731801151487</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>579.1898666384017</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,13 +9012,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>333.2595653118431</v>
+        <v>335.1420048916687</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9243,22 +9243,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>524.8175298481927</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9477,7 +9477,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,16 +9714,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>306.543171528089</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263905</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10194,16 +10194,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>688.0608343844983</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,22 +10425,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>168.5060516210923</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10832,7 +10832,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
         <v>594.0482827698827</v>
@@ -10841,7 +10841,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10902,16 +10902,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11148,13 +11148,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>77.41436949859498</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7494232163241</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>22.42536967360276</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>8.095655162547473</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372779</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750153</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>241.2813390381553</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>77.4143694985956</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>8.550261978170298</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177837</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465748</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456086</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>110.2360107825574</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534021</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1211931.778546011</v>
+        <v>1211330.23093225</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1211931.778546011</v>
+        <v>1211330.23093225</v>
       </c>
     </row>
     <row r="4">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72132.87123734276</v>
+        <v>72132.87123734273</v>
       </c>
       <c r="C2" t="n">
-        <v>72132.87123734274</v>
+        <v>72132.87123734271</v>
       </c>
       <c r="D2" t="n">
         <v>72132.87123734273</v>
@@ -26326,34 +26326,34 @@
         <v>63743.60936976024</v>
       </c>
       <c r="G2" t="n">
-        <v>72132.87123734267</v>
+        <v>72132.87123734268</v>
       </c>
       <c r="H2" t="n">
-        <v>72132.87123734267</v>
+        <v>72132.87123734271</v>
       </c>
       <c r="I2" t="n">
+        <v>72132.87123734271</v>
+      </c>
+      <c r="J2" t="n">
+        <v>72132.87123734262</v>
+      </c>
+      <c r="K2" t="n">
+        <v>72132.87123734255</v>
+      </c>
+      <c r="L2" t="n">
+        <v>72132.87123734274</v>
+      </c>
+      <c r="M2" t="n">
         <v>72132.87123734268</v>
       </c>
-      <c r="J2" t="n">
-        <v>72132.87123734258</v>
-      </c>
-      <c r="K2" t="n">
-        <v>72132.87123734257</v>
-      </c>
-      <c r="L2" t="n">
-        <v>72132.87123734267</v>
-      </c>
-      <c r="M2" t="n">
-        <v>72132.8712373427</v>
-      </c>
       <c r="N2" t="n">
-        <v>72132.8712373427</v>
+        <v>72132.87123734265</v>
       </c>
       <c r="O2" t="n">
-        <v>72132.8712373427</v>
+        <v>72132.87123734271</v>
       </c>
       <c r="P2" t="n">
-        <v>72132.87123734271</v>
+        <v>72132.87123734273</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062183</v>
+        <v>22558.42953401351</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668199</v>
+        <v>47425.32553668191</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728551</v>
+        <v>62456.24177539672</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962301</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541667</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541666</v>
+        <v>195056.1330166296</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805101</v>
+        <v>99893.08150805105</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805102</v>
+        <v>99893.08150805111</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996332</v>
@@ -26439,13 +26439,13 @@
         <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640164</v>
+        <v>148402.4904640163</v>
       </c>
       <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544782</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,16 +26488,16 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-365701.8845486937</v>
+        <v>-361951.9863481591</v>
       </c>
       <c r="C6" t="n">
-        <v>-183496.9362568377</v>
+        <v>-188093.3293141041</v>
       </c>
       <c r="D6" t="n">
-        <v>-189512.737914611</v>
+        <v>-197249.0271380027</v>
       </c>
       <c r="E6" t="n">
-        <v>-201458.0533121758</v>
+        <v>-201667.7848588655</v>
       </c>
       <c r="F6" t="n">
-        <v>-89335.4918381313</v>
+        <v>-89545.22338482099</v>
       </c>
       <c r="G6" t="n">
-        <v>-181114.2216144922</v>
+        <v>-181114.2216144921</v>
       </c>
       <c r="H6" t="n">
-        <v>-133688.8960778102</v>
+        <v>-133688.8960778101</v>
       </c>
       <c r="I6" t="n">
-        <v>-133688.8960778102</v>
+        <v>-133688.8960778101</v>
       </c>
       <c r="J6" t="n">
-        <v>-346730.8136750959</v>
+        <v>-340214.5285205226</v>
       </c>
       <c r="K6" t="n">
         <v>-139928.6644805933</v>
       </c>
       <c r="L6" t="n">
-        <v>-195111.2534152143</v>
+        <v>-199160.0906256864</v>
       </c>
       <c r="M6" t="n">
-        <v>-175889.7255374332</v>
+        <v>-176941.4205486214</v>
       </c>
       <c r="N6" t="n">
         <v>-133688.8960778102</v>
       </c>
       <c r="O6" t="n">
-        <v>-161456.5901205813</v>
+        <v>-161456.5901205814</v>
       </c>
       <c r="P6" t="n">
         <v>-133688.8960778101</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
+        <v>917.0607368443782</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.0607368443782</v>
-      </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085238</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660689</v>
+        <v>78.0703022192459</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551355</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773717</v>
+        <v>659.3622249971645</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407254</v>
+        <v>117.1268713042793</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085238</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346407</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485765</v>
+        <v>72.62154181506457</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>287.6800956765018</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -27439,13 +27439,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>221.8176683615399</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.6626360434351</v>
       </c>
       <c r="G3" t="n">
-        <v>112.606488267191</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27597,10 +27597,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>168.1156351459082</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>56.20273706729816</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>37.06055153745297</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>125.6569908729482</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>112.606488267191</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758558</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>51.75074706354735</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>177.4344354024627</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>145.3708394239613</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>48.33996382481592</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>22.47159052566943</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28068,7 +28068,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>162.9761463409151</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473202</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668768</v>
       </c>
       <c r="K19" t="n">
         <v>130.3599693155844</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.636002634528545</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28992,19 +28992,19 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
       <c r="P22" t="n">
-        <v>5.636002634528367</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29104,7 +29104,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29232,16 +29232,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>5.636002634528467</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>86.65052755599524</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901311</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M29" t="n">
-        <v>86.65052755599527</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>30.27223765901272</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,16 +29779,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>43.49509683160016</v>
       </c>
       <c r="P32" t="n">
-        <v>48.6599273883333</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861254216</v>
+        <v>76.79385455031323</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,22 +30165,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668753</v>
       </c>
       <c r="K37" t="n">
-        <v>5.636002634528637</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
         <v>130.3599693155844</v>
@@ -30402,31 +30402,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
+        <v>28.01250026485211</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5.636002634528666</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30654,16 +30654,16 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30879,22 +30879,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>5.63600263452912</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>93.07534195014233</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>155.7081677729461</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>387.981742076732</v>
+        <v>400.508955839691</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344374</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>73.83216285893928</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344374</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="O5" t="n">
-        <v>63.6798509147604</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
@@ -35021,16 +35021,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>468.6684060776324</v>
+        <v>518.7905844542305</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>77.54012143340162</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>532.9990158358994</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
+        <v>591.4121262692951</v>
+      </c>
+      <c r="N9" t="n">
         <v>180.451438245074</v>
-      </c>
-      <c r="N9" t="n">
-        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,16 +35498,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>51.00106726098203</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,13 +35732,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>247.8874524576764</v>
+        <v>249.769892037502</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257295</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.251623847524</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488451</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>432.4304077988809</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634528606</v>
       </c>
       <c r="K19" t="n">
         <v>213.0216270023944</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.092766644681028</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
         <v>322.9688344062893</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,19 +36288,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724865</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>216.4828246711707</v>
       </c>
       <c r="M24" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36528,16 +36528,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>169.9842521716073</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>232.7614092820842</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047994</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>249.7698920375016</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36838,22 +36838,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>638.1665882070868</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700718</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,16 +36914,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>595.6737123351865</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,16 +37075,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511623</v>
+        <v>664.2959804238014</v>
       </c>
       <c r="N32" t="n">
-        <v>639.479168044982</v>
+        <v>645.9226305176211</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>487.9795421773865</v>
       </c>
       <c r="P32" t="n">
-        <v>400.364464894921</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>75.81849273220344</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.2619698279118</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868808</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255019</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>183.062718149621</v>
+        <v>241.1421040873921</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>233.8669559106681</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634528463</v>
       </c>
       <c r="K37" t="n">
-        <v>88.29766032133861</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37552,7 +37552,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37561,7 +37561,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>213.0216270023944</v>
+        <v>110.6741579516621</v>
       </c>
       <c r="L40" t="n">
-        <v>171.4214974565487</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37868,13 +37868,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37950,16 +37950,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N44" t="n">
         <v>533.1427107449111</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
